--- a/tut05/output/0501CS37.xlsx
+++ b/tut05/output/0501CS37.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.959183673469388</v>
+        <v>7.96</v>
       </c>
       <c r="C6" t="n">
-        <v>8.886363636363637</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>8.186046511627907</v>
+        <v>8.19</v>
       </c>
       <c r="E6" t="n">
-        <v>8.51063829787234</v>
+        <v>8.51</v>
       </c>
       <c r="F6" t="n">
-        <v>8.928571428571429</v>
+        <v>8.93</v>
       </c>
       <c r="G6" t="n">
         <v>9.15</v>
       </c>
       <c r="H6" t="n">
-        <v>9.097560975609756</v>
+        <v>9.1</v>
       </c>
       <c r="I6" t="n">
         <v>8.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.959183673469388</v>
+        <v>7.96</v>
       </c>
       <c r="C8" t="n">
-        <v>8.397849462365592</v>
+        <v>8.4</v>
       </c>
       <c r="D8" t="n">
-        <v>8.330882352941176</v>
+        <v>8.33</v>
       </c>
       <c r="E8" t="n">
-        <v>8.377049180327869</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>8.48</v>
       </c>
       <c r="G8" t="n">
-        <v>8.581132075471698</v>
+        <v>8.58</v>
       </c>
       <c r="H8" t="n">
-        <v>8.65032679738562</v>
+        <v>8.65</v>
       </c>
       <c r="I8" t="n">
-        <v>8.638728323699421</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
   </sheetData>
